--- a/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
+++ b/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="WBS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Gantt" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Backlog" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Milestones" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WBS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gantt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Backlog" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Milestones" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -231,11 +231,44 @@
         <color rgb="00595959"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00BFBFBF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00BFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BFBFBF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00BFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00BFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -358,6 +391,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -743,6 +777,7 @@
           <t>YAM Agri Platform V1.1</t>
         </is>
       </c>
+      <c r="C2" s="50" t="n"/>
     </row>
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
@@ -750,6 +785,7 @@
           <t>Work Breakdown Structure + Gantt Chart</t>
         </is>
       </c>
+      <c r="C3" s="50" t="n"/>
     </row>
     <row r="4" ht="8" customHeight="1"/>
     <row r="5">
@@ -868,8 +904,8 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4489,8 +4525,8 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6340,7 +6376,7 @@
     <row r="50">
       <c r="B50" s="5" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6350,7 +6386,7 @@
       </c>
       <c r="D50" s="18" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -6360,7 +6396,7 @@
       </c>
       <c r="F50" s="23" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -6370,7 +6406,7 @@
       </c>
       <c r="H50" s="25" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -9899,7 +9935,7 @@
       </c>
       <c r="F2" s="37" t="inlineStr">
         <is>
-          <t>⬜ Pending</t>
+          <t>✅ Done</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9967,7 @@
       </c>
       <c r="F3" s="39" t="inlineStr">
         <is>
-          <t>⬜ Pending</t>
+          <t>✅ Done</t>
         </is>
       </c>
     </row>
@@ -9963,7 +9999,7 @@
       </c>
       <c r="F4" s="41" t="inlineStr">
         <is>
-          <t>⬜ Pending</t>
+          <t>🟨 In Progress</t>
         </is>
       </c>
     </row>

--- a/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
+++ b/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
@@ -20,7 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="11">
     <font>
       <name val="Calibri"/>
@@ -268,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -392,6 +394,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -900,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -952,6 +955,26 @@
           <t>Notes</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Execution Status</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Status Updated On</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Started On</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Completed On</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="5" t="inlineStr"/>
@@ -969,6 +992,24 @@
       <c r="E2" s="5" t="inlineStr"/>
       <c r="F2" s="5" t="inlineStr"/>
       <c r="G2" s="5" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I2" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J2" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K2" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="7" t="inlineStr"/>
@@ -996,6 +1037,24 @@
         </is>
       </c>
       <c r="G3" s="7" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I3" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J3" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K3" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="8" t="inlineStr"/>
@@ -1023,6 +1082,24 @@
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I4" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J4" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K4" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="8" t="inlineStr"/>
@@ -1050,6 +1127,24 @@
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I5" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J5" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K5" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="8" t="inlineStr"/>
@@ -1077,6 +1172,24 @@
         </is>
       </c>
       <c r="G6" s="8" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I6" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J6" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K6" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="7" t="inlineStr"/>
@@ -1104,6 +1217,24 @@
         </is>
       </c>
       <c r="G7" s="7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I7" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J7" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K7" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="8" t="inlineStr"/>
@@ -1131,6 +1262,24 @@
         </is>
       </c>
       <c r="G8" s="8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I8" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J8" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K8" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="8" t="inlineStr"/>
@@ -1158,6 +1307,24 @@
         </is>
       </c>
       <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I9" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J9" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K9" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="7" t="inlineStr"/>
@@ -1185,6 +1352,24 @@
         </is>
       </c>
       <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I10" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J10" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K10" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="7" t="inlineStr"/>
@@ -1212,6 +1397,24 @@
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I11" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J11" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K11" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="8" t="inlineStr"/>
@@ -1239,6 +1442,24 @@
         </is>
       </c>
       <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I12" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J12" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K12" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="8" t="inlineStr"/>
@@ -1266,6 +1487,24 @@
         </is>
       </c>
       <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I13" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J13" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K13" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="7" t="inlineStr"/>
@@ -1293,6 +1532,24 @@
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I14" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J14" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K14" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="7" t="inlineStr"/>
@@ -1320,6 +1577,24 @@
         </is>
       </c>
       <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I15" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J15" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K15" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="5" t="inlineStr"/>
@@ -1337,6 +1612,24 @@
       <c r="E16" s="5" t="inlineStr"/>
       <c r="F16" s="5" t="inlineStr"/>
       <c r="G16" s="5" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I16" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J16" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K16" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="7" t="inlineStr"/>
@@ -1364,6 +1657,24 @@
         </is>
       </c>
       <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I17" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J17" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K17" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="7" t="inlineStr"/>
@@ -1391,6 +1702,24 @@
         </is>
       </c>
       <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I18" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J18" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K18" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="16" customHeight="1">
       <c r="A19" s="7" t="inlineStr"/>
@@ -1418,6 +1747,24 @@
         </is>
       </c>
       <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I19" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J19" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K19" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="7" t="inlineStr"/>
@@ -1445,6 +1792,24 @@
         </is>
       </c>
       <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I20" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J20" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K20" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="7" t="inlineStr"/>
@@ -1472,6 +1837,24 @@
         </is>
       </c>
       <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I21" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J21" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K21" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="8" t="inlineStr"/>
@@ -1499,6 +1882,24 @@
         </is>
       </c>
       <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I22" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J22" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K22" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="8" t="inlineStr"/>
@@ -1526,6 +1927,24 @@
         </is>
       </c>
       <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I23" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J23" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K23" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="8" t="inlineStr"/>
@@ -1553,6 +1972,24 @@
         </is>
       </c>
       <c r="G24" s="8" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I24" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J24" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K24" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="7" t="inlineStr"/>
@@ -1580,6 +2017,24 @@
         </is>
       </c>
       <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I25" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J25" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K25" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="7" t="inlineStr"/>
@@ -1607,6 +2062,24 @@
         </is>
       </c>
       <c r="G26" s="7" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="I26" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J26" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="K26" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="5" t="inlineStr"/>
@@ -1624,6 +2097,19 @@
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="inlineStr"/>
       <c r="G27" s="5" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I27" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J27" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="7" t="inlineStr"/>
@@ -1651,6 +2137,19 @@
         </is>
       </c>
       <c r="G28" s="7" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I28" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J28" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="8" t="inlineStr"/>
@@ -1678,6 +2177,19 @@
         </is>
       </c>
       <c r="G29" s="8" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I29" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J29" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" s="8" t="inlineStr"/>
@@ -1705,6 +2217,19 @@
         </is>
       </c>
       <c r="G30" s="8" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I30" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J30" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="16" customHeight="1">
       <c r="A31" s="7" t="inlineStr"/>
@@ -1732,6 +2257,19 @@
         </is>
       </c>
       <c r="G31" s="7" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I31" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J31" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="16" customHeight="1">
       <c r="A32" s="7" t="inlineStr"/>
@@ -1759,6 +2297,19 @@
         </is>
       </c>
       <c r="G32" s="7" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I32" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J32" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="16" customHeight="1">
       <c r="A33" s="7" t="inlineStr"/>
@@ -1786,6 +2337,19 @@
         </is>
       </c>
       <c r="G33" s="7" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I33" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J33" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="8" t="inlineStr"/>
@@ -1813,6 +2377,19 @@
         </is>
       </c>
       <c r="G34" s="8" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I34" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J34" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="8" t="inlineStr"/>
@@ -1840,6 +2417,19 @@
         </is>
       </c>
       <c r="G35" s="8" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I35" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J35" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="8" t="inlineStr"/>
@@ -1867,6 +2457,19 @@
         </is>
       </c>
       <c r="G36" s="8" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I36" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J36" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="7" t="inlineStr"/>
@@ -1894,6 +2497,19 @@
         </is>
       </c>
       <c r="G37" s="7" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I37" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J37" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="7" t="inlineStr"/>
@@ -1921,6 +2537,19 @@
         </is>
       </c>
       <c r="G38" s="7" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I38" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J38" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="7" t="inlineStr"/>
@@ -1948,6 +2577,19 @@
         </is>
       </c>
       <c r="G39" s="7" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I39" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J39" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="7" t="inlineStr"/>
@@ -1975,6 +2617,19 @@
         </is>
       </c>
       <c r="G40" s="7" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I40" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J40" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="7" t="inlineStr"/>
@@ -2002,6 +2657,19 @@
         </is>
       </c>
       <c r="G41" s="7" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I41" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J41" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="7" t="inlineStr"/>
@@ -2029,6 +2697,19 @@
         </is>
       </c>
       <c r="G42" s="7" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I42" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J42" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="7" t="inlineStr"/>
@@ -2056,6 +2737,19 @@
         </is>
       </c>
       <c r="G43" s="7" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I43" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J43" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="7" t="inlineStr"/>
@@ -2083,6 +2777,19 @@
         </is>
       </c>
       <c r="G44" s="7" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I44" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J44" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="7" t="inlineStr"/>
@@ -2110,6 +2817,19 @@
         </is>
       </c>
       <c r="G45" s="7" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I45" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J45" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="8" t="inlineStr"/>
@@ -2137,6 +2857,19 @@
         </is>
       </c>
       <c r="G46" s="8" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I46" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J46" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="8" t="inlineStr"/>
@@ -2164,6 +2897,19 @@
         </is>
       </c>
       <c r="G47" s="8" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I47" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J47" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="8" t="inlineStr"/>
@@ -2191,6 +2937,19 @@
         </is>
       </c>
       <c r="G48" s="8" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I48" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J48" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="7" t="inlineStr"/>
@@ -2218,6 +2977,19 @@
         </is>
       </c>
       <c r="G49" s="7" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I49" s="51" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J49" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="5" t="inlineStr"/>
@@ -2235,6 +3007,14 @@
       <c r="E50" s="5" t="inlineStr"/>
       <c r="F50" s="5" t="inlineStr"/>
       <c r="G50" s="5" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I50" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="7" t="inlineStr"/>
@@ -2262,6 +3042,14 @@
         </is>
       </c>
       <c r="G51" s="7" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I51" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="8" t="inlineStr"/>
@@ -2289,6 +3077,14 @@
         </is>
       </c>
       <c r="G52" s="8" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I52" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="53" ht="16" customHeight="1">
       <c r="A53" s="8" t="inlineStr"/>
@@ -2316,6 +3112,14 @@
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I53" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="54" ht="16" customHeight="1">
       <c r="A54" s="8" t="inlineStr"/>
@@ -2343,6 +3147,14 @@
         </is>
       </c>
       <c r="G54" s="8" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I54" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" s="7" t="inlineStr"/>
@@ -2370,6 +3182,14 @@
         </is>
       </c>
       <c r="G55" s="7" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I55" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="7" t="inlineStr"/>
@@ -2397,6 +3217,14 @@
         </is>
       </c>
       <c r="G56" s="7" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I56" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="57" ht="16" customHeight="1">
       <c r="A57" s="7" t="inlineStr"/>
@@ -2424,6 +3252,14 @@
         </is>
       </c>
       <c r="G57" s="7" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I57" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="58" ht="16" customHeight="1">
       <c r="A58" s="8" t="inlineStr"/>
@@ -2451,6 +3287,14 @@
         </is>
       </c>
       <c r="G58" s="8" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I58" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="59" ht="16" customHeight="1">
       <c r="A59" s="8" t="inlineStr"/>
@@ -2478,6 +3322,14 @@
         </is>
       </c>
       <c r="G59" s="8" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I59" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" s="8" t="inlineStr"/>
@@ -2505,6 +3357,14 @@
         </is>
       </c>
       <c r="G60" s="8" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I60" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="7" t="inlineStr"/>
@@ -2532,6 +3392,14 @@
         </is>
       </c>
       <c r="G61" s="7" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I61" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="62" ht="16" customHeight="1">
       <c r="A62" s="7" t="inlineStr"/>
@@ -2559,6 +3427,14 @@
         </is>
       </c>
       <c r="G62" s="7" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I62" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" s="5" t="inlineStr"/>
@@ -2576,6 +3452,14 @@
       <c r="E63" s="5" t="inlineStr"/>
       <c r="F63" s="5" t="inlineStr"/>
       <c r="G63" s="5" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I63" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="64" ht="16" customHeight="1">
       <c r="A64" s="7" t="inlineStr"/>
@@ -2603,6 +3487,14 @@
         </is>
       </c>
       <c r="G64" s="7" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I64" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="8" t="inlineStr"/>
@@ -2630,6 +3522,14 @@
         </is>
       </c>
       <c r="G65" s="8" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I65" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="66" ht="16" customHeight="1">
       <c r="A66" s="8" t="inlineStr"/>
@@ -2657,6 +3557,14 @@
         </is>
       </c>
       <c r="G66" s="8" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I66" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="67" ht="16" customHeight="1">
       <c r="A67" s="7" t="inlineStr"/>
@@ -2684,6 +3592,14 @@
         </is>
       </c>
       <c r="G67" s="7" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I67" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="68" ht="16" customHeight="1">
       <c r="A68" s="8" t="inlineStr"/>
@@ -2711,6 +3627,14 @@
         </is>
       </c>
       <c r="G68" s="8" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I68" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="69" ht="16" customHeight="1">
       <c r="A69" s="8" t="inlineStr"/>
@@ -2738,6 +3662,14 @@
         </is>
       </c>
       <c r="G69" s="8" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I69" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="70" ht="16" customHeight="1">
       <c r="A70" s="7" t="inlineStr"/>
@@ -2765,6 +3697,14 @@
         </is>
       </c>
       <c r="G70" s="7" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I70" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="8" t="inlineStr"/>
@@ -2792,6 +3732,14 @@
         </is>
       </c>
       <c r="G71" s="8" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I71" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="72" ht="16" customHeight="1">
       <c r="A72" s="8" t="inlineStr"/>
@@ -2819,6 +3767,14 @@
         </is>
       </c>
       <c r="G72" s="8" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I72" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="73" ht="16" customHeight="1">
       <c r="A73" s="8" t="inlineStr"/>
@@ -2846,6 +3802,14 @@
         </is>
       </c>
       <c r="G73" s="8" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I73" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="7" t="inlineStr"/>
@@ -2873,6 +3837,14 @@
         </is>
       </c>
       <c r="G74" s="7" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I74" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="75" ht="16" customHeight="1">
       <c r="A75" s="8" t="inlineStr"/>
@@ -2900,6 +3872,14 @@
         </is>
       </c>
       <c r="G75" s="8" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I75" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="76" ht="16" customHeight="1">
       <c r="A76" s="8" t="inlineStr"/>
@@ -2927,6 +3907,14 @@
         </is>
       </c>
       <c r="G76" s="8" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I76" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="77" ht="16" customHeight="1">
       <c r="A77" s="7" t="inlineStr"/>
@@ -2954,6 +3942,14 @@
         </is>
       </c>
       <c r="G77" s="7" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I77" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="78" ht="16" customHeight="1">
       <c r="A78" s="7" t="inlineStr"/>
@@ -2981,6 +3977,14 @@
         </is>
       </c>
       <c r="G78" s="7" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I78" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="79" ht="16" customHeight="1">
       <c r="A79" s="7" t="inlineStr"/>
@@ -3008,6 +4012,14 @@
         </is>
       </c>
       <c r="G79" s="7" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I79" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" s="5" t="inlineStr"/>
@@ -3025,6 +4037,14 @@
       <c r="E80" s="5" t="inlineStr"/>
       <c r="F80" s="5" t="inlineStr"/>
       <c r="G80" s="5" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I80" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="81" ht="16" customHeight="1">
       <c r="A81" s="7" t="inlineStr"/>
@@ -3052,6 +4072,14 @@
         </is>
       </c>
       <c r="G81" s="7" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I81" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="82" ht="16" customHeight="1">
       <c r="A82" s="8" t="inlineStr"/>
@@ -3079,6 +4107,14 @@
         </is>
       </c>
       <c r="G82" s="8" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I82" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="83" ht="16" customHeight="1">
       <c r="A83" s="8" t="inlineStr"/>
@@ -3106,6 +4142,14 @@
         </is>
       </c>
       <c r="G83" s="8" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I83" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="84" ht="16" customHeight="1">
       <c r="A84" s="8" t="inlineStr"/>
@@ -3133,6 +4177,14 @@
         </is>
       </c>
       <c r="G84" s="8" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I84" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="85" ht="16" customHeight="1">
       <c r="A85" s="8" t="inlineStr"/>
@@ -3160,6 +4212,14 @@
         </is>
       </c>
       <c r="G85" s="8" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I85" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="86" ht="16" customHeight="1">
       <c r="A86" s="7" t="inlineStr"/>
@@ -3187,6 +4247,14 @@
         </is>
       </c>
       <c r="G86" s="7" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I86" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="87" ht="16" customHeight="1">
       <c r="A87" s="7" t="inlineStr"/>
@@ -3214,6 +4282,14 @@
         </is>
       </c>
       <c r="G87" s="7" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I87" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="88" ht="16" customHeight="1">
       <c r="A88" s="8" t="inlineStr"/>
@@ -3241,6 +4317,14 @@
         </is>
       </c>
       <c r="G88" s="8" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I88" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="8" t="inlineStr"/>
@@ -3268,6 +4352,14 @@
         </is>
       </c>
       <c r="G89" s="8" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I89" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="90" ht="16" customHeight="1">
       <c r="A90" s="8" t="inlineStr"/>
@@ -3295,6 +4387,14 @@
         </is>
       </c>
       <c r="G90" s="8" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I90" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="91" ht="16" customHeight="1">
       <c r="A91" s="7" t="inlineStr"/>
@@ -3322,6 +4422,14 @@
         </is>
       </c>
       <c r="G91" s="7" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I91" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="92" ht="16" customHeight="1">
       <c r="A92" s="8" t="inlineStr"/>
@@ -3349,6 +4457,14 @@
         </is>
       </c>
       <c r="G92" s="8" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I92" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="93" ht="16" customHeight="1">
       <c r="A93" s="8" t="inlineStr"/>
@@ -3376,6 +4492,14 @@
         </is>
       </c>
       <c r="G93" s="8" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I93" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="94" ht="16" customHeight="1">
       <c r="A94" s="8" t="inlineStr"/>
@@ -3403,6 +4527,14 @@
         </is>
       </c>
       <c r="G94" s="8" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I94" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="95" ht="16" customHeight="1">
       <c r="A95" s="7" t="inlineStr"/>
@@ -3430,6 +4562,14 @@
         </is>
       </c>
       <c r="G95" s="7" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I95" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="96" ht="16" customHeight="1">
       <c r="A96" s="7" t="inlineStr"/>
@@ -3457,6 +4597,14 @@
         </is>
       </c>
       <c r="G96" s="7" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I96" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" s="5" t="inlineStr"/>
@@ -3474,6 +4622,14 @@
       <c r="E97" s="5" t="inlineStr"/>
       <c r="F97" s="5" t="inlineStr"/>
       <c r="G97" s="5" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I97" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="98" ht="16" customHeight="1">
       <c r="A98" s="7" t="inlineStr"/>
@@ -3501,6 +4657,14 @@
         </is>
       </c>
       <c r="G98" s="7" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I98" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="99" ht="16" customHeight="1">
       <c r="A99" s="8" t="inlineStr"/>
@@ -3528,6 +4692,14 @@
         </is>
       </c>
       <c r="G99" s="8" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I99" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="100" ht="16" customHeight="1">
       <c r="A100" s="8" t="inlineStr"/>
@@ -3555,6 +4727,14 @@
         </is>
       </c>
       <c r="G100" s="8" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I100" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="101" ht="16" customHeight="1">
       <c r="A101" s="8" t="inlineStr"/>
@@ -3582,6 +4762,14 @@
         </is>
       </c>
       <c r="G101" s="8" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I101" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="102" ht="16" customHeight="1">
       <c r="A102" s="7" t="inlineStr"/>
@@ -3609,6 +4797,14 @@
         </is>
       </c>
       <c r="G102" s="7" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I102" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="103" ht="16" customHeight="1">
       <c r="A103" s="7" t="inlineStr"/>
@@ -3636,6 +4832,14 @@
         </is>
       </c>
       <c r="G103" s="7" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I103" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="104" ht="16" customHeight="1">
       <c r="A104" s="7" t="inlineStr"/>
@@ -3663,6 +4867,14 @@
         </is>
       </c>
       <c r="G104" s="7" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I104" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="105" ht="16" customHeight="1">
       <c r="A105" s="7" t="inlineStr"/>
@@ -3690,6 +4902,14 @@
         </is>
       </c>
       <c r="G105" s="7" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I105" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="106" ht="16" customHeight="1">
       <c r="A106" s="8" t="inlineStr"/>
@@ -3717,6 +4937,14 @@
         </is>
       </c>
       <c r="G106" s="8" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I106" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="107" ht="16" customHeight="1">
       <c r="A107" s="8" t="inlineStr"/>
@@ -3744,6 +4972,14 @@
         </is>
       </c>
       <c r="G107" s="8" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I107" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="108" ht="16" customHeight="1">
       <c r="A108" s="7" t="inlineStr"/>
@@ -3771,6 +5007,14 @@
         </is>
       </c>
       <c r="G108" s="7" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I108" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="109" ht="16" customHeight="1">
       <c r="A109" s="7" t="inlineStr"/>
@@ -3798,6 +5042,14 @@
         </is>
       </c>
       <c r="G109" s="7" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I109" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" s="5" t="inlineStr"/>
@@ -3815,6 +5067,14 @@
       <c r="E110" s="5" t="inlineStr"/>
       <c r="F110" s="5" t="inlineStr"/>
       <c r="G110" s="5" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I110" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="111" ht="16" customHeight="1">
       <c r="A111" s="7" t="inlineStr"/>
@@ -3842,6 +5102,14 @@
         </is>
       </c>
       <c r="G111" s="7" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I111" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="112" ht="16" customHeight="1">
       <c r="A112" s="8" t="inlineStr"/>
@@ -3869,6 +5137,14 @@
         </is>
       </c>
       <c r="G112" s="8" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I112" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="113" ht="16" customHeight="1">
       <c r="A113" s="8" t="inlineStr"/>
@@ -3896,6 +5172,14 @@
         </is>
       </c>
       <c r="G113" s="8" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I113" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="114" ht="16" customHeight="1">
       <c r="A114" s="8" t="inlineStr"/>
@@ -3923,6 +5207,14 @@
         </is>
       </c>
       <c r="G114" s="8" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I114" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="115" ht="16" customHeight="1">
       <c r="A115" s="7" t="inlineStr"/>
@@ -3950,6 +5242,14 @@
         </is>
       </c>
       <c r="G115" s="7" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I115" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="116" ht="16" customHeight="1">
       <c r="A116" s="7" t="inlineStr"/>
@@ -3977,6 +5277,14 @@
         </is>
       </c>
       <c r="G116" s="7" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I116" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="117" ht="16" customHeight="1">
       <c r="A117" s="7" t="inlineStr"/>
@@ -4004,6 +5312,14 @@
         </is>
       </c>
       <c r="G117" s="7" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I117" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="118" ht="16" customHeight="1">
       <c r="A118" s="7" t="inlineStr"/>
@@ -4031,6 +5347,14 @@
         </is>
       </c>
       <c r="G118" s="7" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I118" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" s="5" t="inlineStr"/>
@@ -4048,6 +5372,14 @@
       <c r="E119" s="5" t="inlineStr"/>
       <c r="F119" s="5" t="inlineStr"/>
       <c r="G119" s="5" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I119" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="120" ht="16" customHeight="1">
       <c r="A120" s="7" t="inlineStr"/>
@@ -4075,6 +5407,14 @@
         </is>
       </c>
       <c r="G120" s="7" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I120" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="121" ht="16" customHeight="1">
       <c r="A121" s="8" t="inlineStr"/>
@@ -4102,6 +5442,14 @@
         </is>
       </c>
       <c r="G121" s="8" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I121" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="122" ht="16" customHeight="1">
       <c r="A122" s="8" t="inlineStr"/>
@@ -4129,6 +5477,14 @@
         </is>
       </c>
       <c r="G122" s="8" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I122" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="123" ht="16" customHeight="1">
       <c r="A123" s="7" t="inlineStr"/>
@@ -4156,6 +5512,14 @@
         </is>
       </c>
       <c r="G123" s="7" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I123" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="124" ht="16" customHeight="1">
       <c r="A124" s="7" t="inlineStr"/>
@@ -4183,6 +5547,14 @@
         </is>
       </c>
       <c r="G124" s="7" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I124" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="125" ht="16" customHeight="1">
       <c r="A125" s="8" t="inlineStr"/>
@@ -4210,6 +5582,14 @@
         </is>
       </c>
       <c r="G125" s="8" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I125" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="126" ht="16" customHeight="1">
       <c r="A126" s="8" t="inlineStr"/>
@@ -4237,6 +5617,14 @@
         </is>
       </c>
       <c r="G126" s="8" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I126" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="127" ht="16" customHeight="1">
       <c r="A127" s="7" t="inlineStr"/>
@@ -4264,6 +5652,14 @@
         </is>
       </c>
       <c r="G127" s="7" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I127" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="128" ht="16" customHeight="1">
       <c r="A128" s="7" t="inlineStr"/>
@@ -4291,6 +5687,14 @@
         </is>
       </c>
       <c r="G128" s="7" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I128" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" s="5" t="inlineStr"/>
@@ -4308,6 +5712,14 @@
       <c r="E129" s="5" t="inlineStr"/>
       <c r="F129" s="5" t="inlineStr"/>
       <c r="G129" s="5" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I129" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="130" ht="16" customHeight="1">
       <c r="A130" s="7" t="inlineStr"/>
@@ -4335,6 +5747,14 @@
         </is>
       </c>
       <c r="G130" s="7" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I130" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="131" ht="16" customHeight="1">
       <c r="A131" s="7" t="inlineStr"/>
@@ -4362,6 +5782,14 @@
         </is>
       </c>
       <c r="G131" s="7" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I131" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="132" ht="16" customHeight="1">
       <c r="A132" s="8" t="inlineStr"/>
@@ -4389,6 +5817,14 @@
         </is>
       </c>
       <c r="G132" s="8" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I132" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="133" ht="16" customHeight="1">
       <c r="A133" s="8" t="inlineStr"/>
@@ -4416,6 +5852,14 @@
         </is>
       </c>
       <c r="G133" s="8" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I133" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="134" ht="16" customHeight="1">
       <c r="A134" s="7" t="inlineStr"/>
@@ -4443,6 +5887,14 @@
         </is>
       </c>
       <c r="G134" s="7" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I134" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="135" ht="16" customHeight="1">
       <c r="A135" s="7" t="inlineStr"/>
@@ -4470,6 +5922,14 @@
         </is>
       </c>
       <c r="G135" s="7" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I135" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="136" ht="16" customHeight="1">
       <c r="A136" s="7" t="inlineStr"/>
@@ -4497,6 +5957,14 @@
         </is>
       </c>
       <c r="G136" s="7" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I136" s="51" t="n">
+        <v>46077</v>
+      </c>
     </row>
     <row r="137">
       <c r="B137" s="9" t="inlineStr">
@@ -4508,6 +5976,14 @@
         <is>
           <t>≈ 105 dev-days</t>
         </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="I137" s="51" t="n">
+        <v>46077</v>
       </c>
     </row>
   </sheetData>

--- a/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
+++ b/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
@@ -2099,13 +2099,18 @@
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I27" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J27" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K27" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2139,13 +2144,18 @@
       <c r="G28" s="7" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I28" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J28" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K28" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2179,13 +2189,18 @@
       <c r="G29" s="8" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I29" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J29" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K29" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2219,13 +2234,18 @@
       <c r="G30" s="8" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I30" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J30" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K30" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2259,13 +2279,18 @@
       <c r="G31" s="7" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I31" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J31" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K31" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2299,13 +2324,18 @@
       <c r="G32" s="7" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I32" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J32" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K32" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2339,13 +2369,18 @@
       <c r="G33" s="7" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I33" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J33" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K33" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2379,13 +2414,18 @@
       <c r="G34" s="8" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I34" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J34" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K34" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2419,13 +2459,18 @@
       <c r="G35" s="8" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I35" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J35" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K35" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2459,13 +2504,18 @@
       <c r="G36" s="8" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I36" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J36" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K36" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2499,13 +2549,18 @@
       <c r="G37" s="7" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I37" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J37" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K37" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2539,13 +2594,18 @@
       <c r="G38" s="7" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I38" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J38" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K38" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2579,13 +2639,18 @@
       <c r="G39" s="7" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I39" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J39" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K39" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2619,13 +2684,18 @@
       <c r="G40" s="7" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I40" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J40" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K40" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2659,13 +2729,18 @@
       <c r="G41" s="7" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I41" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J41" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K41" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2699,13 +2774,18 @@
       <c r="G42" s="7" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I42" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J42" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K42" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2739,13 +2819,18 @@
       <c r="G43" s="7" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I43" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J43" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K43" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2779,13 +2864,18 @@
       <c r="G44" s="7" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I44" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J44" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K44" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2819,13 +2909,18 @@
       <c r="G45" s="7" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I45" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J45" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K45" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2859,13 +2954,18 @@
       <c r="G46" s="8" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I46" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J46" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K46" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2899,13 +2999,18 @@
       <c r="G47" s="8" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I47" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J47" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K47" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2939,13 +3044,18 @@
       <c r="G48" s="8" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I48" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J48" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K48" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -2979,13 +3089,18 @@
       <c r="G49" s="7" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I49" s="51" t="n">
         <v>46077</v>
       </c>
       <c r="J49" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="K49" s="51" t="inlineStr">
         <is>
           <t>2026-04-03</t>
         </is>
@@ -3009,11 +3124,16 @@
       <c r="G50" s="5" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I50" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J50" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="51" ht="16" customHeight="1">
@@ -3044,11 +3164,16 @@
       <c r="G51" s="7" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I51" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J51" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="52" ht="16" customHeight="1">
@@ -3079,11 +3204,16 @@
       <c r="G52" s="8" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I52" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J52" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="53" ht="16" customHeight="1">
@@ -3114,11 +3244,16 @@
       <c r="G53" s="8" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I53" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J53" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="54" ht="16" customHeight="1">
@@ -3149,11 +3284,16 @@
       <c r="G54" s="8" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I54" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J54" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="55" ht="16" customHeight="1">
@@ -3184,11 +3324,16 @@
       <c r="G55" s="7" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I55" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J55" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="56" ht="16" customHeight="1">
@@ -3219,11 +3364,16 @@
       <c r="G56" s="7" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I56" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J56" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="57" ht="16" customHeight="1">
@@ -3254,11 +3404,16 @@
       <c r="G57" s="7" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I57" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J57" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="58" ht="16" customHeight="1">
@@ -3289,11 +3444,16 @@
       <c r="G58" s="8" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I58" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J58" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="59" ht="16" customHeight="1">
@@ -3324,11 +3484,16 @@
       <c r="G59" s="8" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I59" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J59" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="60" ht="16" customHeight="1">
@@ -3359,11 +3524,16 @@
       <c r="G60" s="8" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I60" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J60" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1">
@@ -3394,11 +3564,16 @@
       <c r="G61" s="7" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I61" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J61" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="62" ht="16" customHeight="1">
@@ -3429,11 +3604,16 @@
       <c r="G62" s="7" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Not Started</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I62" s="51" t="n">
         <v>46077</v>
+      </c>
+      <c r="J62" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -11475,7 +11655,7 @@
       </c>
       <c r="F4" s="41" t="inlineStr">
         <is>
-          <t>🟨 In Progress</t>
+          <t>✅ Done</t>
         </is>
       </c>
     </row>
@@ -11507,7 +11687,7 @@
       </c>
       <c r="F5" s="43" t="inlineStr">
         <is>
-          <t>⬜ Pending</t>
+          <t>🟨 In Progress</t>
         </is>
       </c>
     </row>

--- a/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
+++ b/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
@@ -903,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:P137"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -975,6 +975,31 @@
           <t>Completed On</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Schema</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Permissions/Isolation</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Workflow</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="5" t="inlineStr"/>
@@ -994,7 +1019,7 @@
       <c r="G2" s="5" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I2" s="51" t="n">
@@ -1005,11 +1030,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K2" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K2" s="51" t="n"/>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="7" t="inlineStr"/>
@@ -1039,7 +1060,7 @@
       <c r="G3" s="7" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" s="51" t="n">
@@ -1050,11 +1071,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K3" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K3" s="51" t="n"/>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="8" t="inlineStr"/>
@@ -1084,7 +1101,7 @@
       <c r="G4" s="8" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I4" s="51" t="n">
@@ -1095,11 +1112,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K4" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K4" s="51" t="n"/>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="8" t="inlineStr"/>
@@ -1129,7 +1142,7 @@
       <c r="G5" s="8" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I5" s="51" t="n">
@@ -1140,11 +1153,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K5" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K5" s="51" t="n"/>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="8" t="inlineStr"/>
@@ -1174,7 +1183,7 @@
       <c r="G6" s="8" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I6" s="51" t="n">
@@ -1185,11 +1194,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K6" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K6" s="51" t="n"/>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="7" t="inlineStr"/>
@@ -1219,7 +1224,7 @@
       <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I7" s="51" t="n">
@@ -1230,11 +1235,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K7" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K7" s="51" t="n"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="8" t="inlineStr"/>
@@ -1264,7 +1265,7 @@
       <c r="G8" s="8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I8" s="51" t="n">
@@ -1275,11 +1276,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K8" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K8" s="51" t="n"/>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="8" t="inlineStr"/>
@@ -1309,7 +1306,7 @@
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I9" s="51" t="n">
@@ -1320,11 +1317,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K9" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K9" s="51" t="n"/>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="7" t="inlineStr"/>
@@ -1354,7 +1347,7 @@
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I10" s="51" t="n">
@@ -1365,11 +1358,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K10" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K10" s="51" t="n"/>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="7" t="inlineStr"/>
@@ -1399,7 +1388,7 @@
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I11" s="51" t="n">
@@ -1410,11 +1399,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K11" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K11" s="51" t="n"/>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="8" t="inlineStr"/>
@@ -1444,7 +1429,7 @@
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I12" s="51" t="n">
@@ -1455,11 +1440,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K12" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K12" s="51" t="n"/>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="8" t="inlineStr"/>
@@ -1489,7 +1470,7 @@
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I13" s="51" t="n">
@@ -1500,11 +1481,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K13" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K13" s="51" t="n"/>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="7" t="inlineStr"/>
@@ -1534,7 +1511,7 @@
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I14" s="51" t="n">
@@ -1545,11 +1522,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K14" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K14" s="51" t="n"/>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="7" t="inlineStr"/>
@@ -1579,7 +1552,7 @@
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I15" s="51" t="n">
@@ -1590,11 +1563,7 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K15" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
+      <c r="K15" s="51" t="n"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="5" t="inlineStr"/>
@@ -1614,7 +1583,7 @@
       <c r="G16" s="5" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I16" s="51" t="n">
@@ -1625,11 +1594,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K16" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K16" s="51" t="n"/>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="7" t="inlineStr"/>
@@ -1659,7 +1624,7 @@
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I17" s="51" t="n">
@@ -1670,11 +1635,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K17" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K17" s="51" t="n"/>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="7" t="inlineStr"/>
@@ -1704,7 +1665,7 @@
       <c r="G18" s="7" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I18" s="51" t="n">
@@ -1715,11 +1676,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K18" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K18" s="51" t="n"/>
     </row>
     <row r="19" ht="16" customHeight="1">
       <c r="A19" s="7" t="inlineStr"/>
@@ -1749,7 +1706,7 @@
       <c r="G19" s="7" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I19" s="51" t="n">
@@ -1760,11 +1717,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K19" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K19" s="51" t="n"/>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="7" t="inlineStr"/>
@@ -1794,7 +1747,7 @@
       <c r="G20" s="7" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I20" s="51" t="n">
@@ -1805,11 +1758,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K20" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K20" s="51" t="n"/>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="7" t="inlineStr"/>
@@ -1839,7 +1788,7 @@
       <c r="G21" s="7" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I21" s="51" t="n">
@@ -1850,11 +1799,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K21" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K21" s="51" t="n"/>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="8" t="inlineStr"/>
@@ -1884,7 +1829,7 @@
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I22" s="51" t="n">
@@ -1895,11 +1840,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K22" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K22" s="51" t="n"/>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="8" t="inlineStr"/>
@@ -1929,7 +1870,7 @@
       <c r="G23" s="8" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I23" s="51" t="n">
@@ -1940,11 +1881,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K23" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K23" s="51" t="n"/>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="8" t="inlineStr"/>
@@ -1974,7 +1911,7 @@
       <c r="G24" s="8" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I24" s="51" t="n">
@@ -1985,11 +1922,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K24" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K24" s="51" t="n"/>
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="7" t="inlineStr"/>
@@ -2019,7 +1952,7 @@
       <c r="G25" s="7" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I25" s="51" t="n">
@@ -2030,11 +1963,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K25" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K25" s="51" t="n"/>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="7" t="inlineStr"/>
@@ -2064,7 +1993,7 @@
       <c r="G26" s="7" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I26" s="51" t="n">
@@ -2075,11 +2004,7 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K26" s="51" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
+      <c r="K26" s="51" t="n"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="5" t="inlineStr"/>
@@ -2099,7 +2024,7 @@
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I27" s="51" t="n">
@@ -2110,11 +2035,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K27" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K27" s="51" t="n"/>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="7" t="inlineStr"/>
@@ -2144,7 +2065,7 @@
       <c r="G28" s="7" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I28" s="51" t="n">
@@ -2155,11 +2076,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K28" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K28" s="51" t="n"/>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="8" t="inlineStr"/>
@@ -2189,7 +2106,7 @@
       <c r="G29" s="8" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I29" s="51" t="n">
@@ -2200,11 +2117,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K29" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K29" s="51" t="n"/>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" s="8" t="inlineStr"/>
@@ -2234,7 +2147,7 @@
       <c r="G30" s="8" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I30" s="51" t="n">
@@ -2245,11 +2158,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K30" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K30" s="51" t="n"/>
     </row>
     <row r="31" ht="16" customHeight="1">
       <c r="A31" s="7" t="inlineStr"/>
@@ -2279,7 +2188,7 @@
       <c r="G31" s="7" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I31" s="51" t="n">
@@ -2290,11 +2199,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K31" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K31" s="51" t="n"/>
     </row>
     <row r="32" ht="16" customHeight="1">
       <c r="A32" s="7" t="inlineStr"/>
@@ -2324,7 +2229,7 @@
       <c r="G32" s="7" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I32" s="51" t="n">
@@ -2335,11 +2240,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K32" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K32" s="51" t="n"/>
     </row>
     <row r="33" ht="16" customHeight="1">
       <c r="A33" s="7" t="inlineStr"/>
@@ -2369,7 +2270,7 @@
       <c r="G33" s="7" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I33" s="51" t="n">
@@ -2380,11 +2281,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K33" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K33" s="51" t="n"/>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="8" t="inlineStr"/>
@@ -2414,7 +2311,7 @@
       <c r="G34" s="8" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I34" s="51" t="n">
@@ -2425,11 +2322,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K34" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K34" s="51" t="n"/>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="8" t="inlineStr"/>
@@ -2459,7 +2352,7 @@
       <c r="G35" s="8" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I35" s="51" t="n">
@@ -2470,11 +2363,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K35" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K35" s="51" t="n"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="8" t="inlineStr"/>
@@ -2504,7 +2393,7 @@
       <c r="G36" s="8" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I36" s="51" t="n">
@@ -2515,11 +2404,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K36" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K36" s="51" t="n"/>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="7" t="inlineStr"/>
@@ -2549,7 +2434,7 @@
       <c r="G37" s="7" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I37" s="51" t="n">
@@ -2560,11 +2445,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K37" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K37" s="51" t="n"/>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="7" t="inlineStr"/>
@@ -2594,7 +2475,7 @@
       <c r="G38" s="7" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I38" s="51" t="n">
@@ -2605,11 +2486,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K38" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K38" s="51" t="n"/>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="7" t="inlineStr"/>
@@ -2639,7 +2516,7 @@
       <c r="G39" s="7" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I39" s="51" t="n">
@@ -2650,11 +2527,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K39" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K39" s="51" t="n"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="7" t="inlineStr"/>
@@ -2684,7 +2557,7 @@
       <c r="G40" s="7" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I40" s="51" t="n">
@@ -2695,11 +2568,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K40" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K40" s="51" t="n"/>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="7" t="inlineStr"/>
@@ -2729,7 +2598,7 @@
       <c r="G41" s="7" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I41" s="51" t="n">
@@ -2740,11 +2609,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K41" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K41" s="51" t="n"/>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="7" t="inlineStr"/>
@@ -2774,7 +2639,7 @@
       <c r="G42" s="7" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I42" s="51" t="n">
@@ -2785,11 +2650,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K42" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K42" s="51" t="n"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="7" t="inlineStr"/>
@@ -2819,7 +2680,7 @@
       <c r="G43" s="7" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I43" s="51" t="n">
@@ -2830,11 +2691,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K43" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K43" s="51" t="n"/>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="7" t="inlineStr"/>
@@ -2864,7 +2721,7 @@
       <c r="G44" s="7" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I44" s="51" t="n">
@@ -2875,11 +2732,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K44" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K44" s="51" t="n"/>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="7" t="inlineStr"/>
@@ -2909,7 +2762,7 @@
       <c r="G45" s="7" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I45" s="51" t="n">
@@ -2920,11 +2773,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K45" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K45" s="51" t="n"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="8" t="inlineStr"/>
@@ -2954,7 +2803,7 @@
       <c r="G46" s="8" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I46" s="51" t="n">
@@ -2965,11 +2814,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K46" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K46" s="51" t="n"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="8" t="inlineStr"/>
@@ -2999,7 +2844,7 @@
       <c r="G47" s="8" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I47" s="51" t="n">
@@ -3010,11 +2855,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K47" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K47" s="51" t="n"/>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="8" t="inlineStr"/>
@@ -3044,7 +2885,7 @@
       <c r="G48" s="8" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I48" s="51" t="n">
@@ -3055,11 +2896,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K48" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K48" s="51" t="n"/>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="7" t="inlineStr"/>
@@ -3089,7 +2926,7 @@
       <c r="G49" s="7" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I49" s="51" t="n">
@@ -3100,11 +2937,7 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K49" s="51" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
+      <c r="K49" s="51" t="n"/>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="5" t="inlineStr"/>

--- a/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
+++ b/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
@@ -1019,7 +1019,7 @@
       <c r="G2" s="5" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I2" s="51" t="n">
@@ -1030,7 +1030,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K2" s="51" t="n"/>
+      <c r="K2" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="7" t="inlineStr"/>
@@ -1060,7 +1089,7 @@
       <c r="G3" s="7" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I3" s="51" t="n">
@@ -1071,7 +1100,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K3" s="51" t="n"/>
+      <c r="K3" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="8" t="inlineStr"/>
@@ -1101,7 +1159,7 @@
       <c r="G4" s="8" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I4" s="51" t="n">
@@ -1112,7 +1170,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K4" s="51" t="n"/>
+      <c r="K4" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="8" t="inlineStr"/>
@@ -1142,7 +1229,7 @@
       <c r="G5" s="8" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I5" s="51" t="n">
@@ -1153,7 +1240,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K5" s="51" t="n"/>
+      <c r="K5" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="8" t="inlineStr"/>
@@ -1183,7 +1299,7 @@
       <c r="G6" s="8" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I6" s="51" t="n">
@@ -1194,7 +1310,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K6" s="51" t="n"/>
+      <c r="K6" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="7" t="inlineStr"/>
@@ -1224,7 +1369,7 @@
       <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I7" s="51" t="n">
@@ -1235,7 +1380,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K7" s="51" t="n"/>
+      <c r="K7" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="8" t="inlineStr"/>
@@ -1265,7 +1439,7 @@
       <c r="G8" s="8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I8" s="51" t="n">
@@ -1276,7 +1450,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K8" s="51" t="n"/>
+      <c r="K8" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="8" t="inlineStr"/>
@@ -1306,7 +1509,7 @@
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I9" s="51" t="n">
@@ -1317,7 +1520,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K9" s="51" t="n"/>
+      <c r="K9" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="7" t="inlineStr"/>
@@ -1347,7 +1579,7 @@
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I10" s="51" t="n">
@@ -1358,7 +1590,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K10" s="51" t="n"/>
+      <c r="K10" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="7" t="inlineStr"/>
@@ -1388,7 +1649,7 @@
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I11" s="51" t="n">
@@ -1399,7 +1660,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K11" s="51" t="n"/>
+      <c r="K11" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="8" t="inlineStr"/>
@@ -1429,7 +1719,7 @@
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I12" s="51" t="n">
@@ -1440,7 +1730,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K12" s="51" t="n"/>
+      <c r="K12" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="8" t="inlineStr"/>
@@ -1470,7 +1789,7 @@
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I13" s="51" t="n">
@@ -1481,7 +1800,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K13" s="51" t="n"/>
+      <c r="K13" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="7" t="inlineStr"/>
@@ -1511,7 +1859,7 @@
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I14" s="51" t="n">
@@ -1522,7 +1870,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K14" s="51" t="n"/>
+      <c r="K14" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="7" t="inlineStr"/>
@@ -1552,7 +1929,7 @@
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I15" s="51" t="n">
@@ -1563,7 +1940,36 @@
           <t>2026-03-06</t>
         </is>
       </c>
-      <c r="K15" s="51" t="n"/>
+      <c r="K15" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="5" t="inlineStr"/>
@@ -1583,7 +1989,7 @@
       <c r="G16" s="5" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I16" s="51" t="n">
@@ -1594,7 +2000,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K16" s="51" t="n"/>
+      <c r="K16" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="7" t="inlineStr"/>
@@ -1624,7 +2059,7 @@
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I17" s="51" t="n">
@@ -1635,7 +2070,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K17" s="51" t="n"/>
+      <c r="K17" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="7" t="inlineStr"/>
@@ -1665,7 +2129,7 @@
       <c r="G18" s="7" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I18" s="51" t="n">
@@ -1676,7 +2140,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K18" s="51" t="n"/>
+      <c r="K18" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="16" customHeight="1">
       <c r="A19" s="7" t="inlineStr"/>
@@ -1706,7 +2199,7 @@
       <c r="G19" s="7" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I19" s="51" t="n">
@@ -1717,7 +2210,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K19" s="51" t="n"/>
+      <c r="K19" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="7" t="inlineStr"/>
@@ -1747,7 +2269,7 @@
       <c r="G20" s="7" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I20" s="51" t="n">
@@ -1758,7 +2280,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K20" s="51" t="n"/>
+      <c r="K20" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="7" t="inlineStr"/>
@@ -1788,7 +2339,7 @@
       <c r="G21" s="7" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I21" s="51" t="n">
@@ -1799,7 +2350,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K21" s="51" t="n"/>
+      <c r="K21" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="8" t="inlineStr"/>
@@ -1829,7 +2409,7 @@
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I22" s="51" t="n">
@@ -1840,7 +2420,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K22" s="51" t="n"/>
+      <c r="K22" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="8" t="inlineStr"/>
@@ -1870,7 +2479,7 @@
       <c r="G23" s="8" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I23" s="51" t="n">
@@ -1881,7 +2490,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K23" s="51" t="n"/>
+      <c r="K23" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="8" t="inlineStr"/>
@@ -1911,7 +2549,7 @@
       <c r="G24" s="8" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I24" s="51" t="n">
@@ -1922,7 +2560,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K24" s="51" t="n"/>
+      <c r="K24" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="7" t="inlineStr"/>
@@ -1952,7 +2619,7 @@
       <c r="G25" s="7" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I25" s="51" t="n">
@@ -1963,7 +2630,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K25" s="51" t="n"/>
+      <c r="K25" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="7" t="inlineStr"/>
@@ -1993,7 +2689,7 @@
       <c r="G26" s="7" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I26" s="51" t="n">
@@ -2004,7 +2700,36 @@
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="K26" s="51" t="n"/>
+      <c r="K26" s="51" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="5" t="inlineStr"/>
@@ -2024,7 +2749,7 @@
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I27" s="51" t="n">
@@ -2035,7 +2760,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K27" s="51" t="n"/>
+      <c r="K27" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="7" t="inlineStr"/>
@@ -2065,7 +2819,7 @@
       <c r="G28" s="7" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I28" s="51" t="n">
@@ -2076,7 +2830,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K28" s="51" t="n"/>
+      <c r="K28" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="8" t="inlineStr"/>
@@ -2106,7 +2889,7 @@
       <c r="G29" s="8" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I29" s="51" t="n">
@@ -2117,7 +2900,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K29" s="51" t="n"/>
+      <c r="K29" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" s="8" t="inlineStr"/>
@@ -2147,7 +2959,7 @@
       <c r="G30" s="8" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I30" s="51" t="n">
@@ -2158,7 +2970,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K30" s="51" t="n"/>
+      <c r="K30" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="16" customHeight="1">
       <c r="A31" s="7" t="inlineStr"/>
@@ -2188,7 +3029,7 @@
       <c r="G31" s="7" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I31" s="51" t="n">
@@ -2199,7 +3040,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K31" s="51" t="n"/>
+      <c r="K31" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="16" customHeight="1">
       <c r="A32" s="7" t="inlineStr"/>
@@ -2229,7 +3099,7 @@
       <c r="G32" s="7" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I32" s="51" t="n">
@@ -2240,7 +3110,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K32" s="51" t="n"/>
+      <c r="K32" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="16" customHeight="1">
       <c r="A33" s="7" t="inlineStr"/>
@@ -2270,7 +3169,7 @@
       <c r="G33" s="7" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I33" s="51" t="n">
@@ -2281,7 +3180,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K33" s="51" t="n"/>
+      <c r="K33" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="8" t="inlineStr"/>
@@ -2311,7 +3239,7 @@
       <c r="G34" s="8" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I34" s="51" t="n">
@@ -2322,7 +3250,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K34" s="51" t="n"/>
+      <c r="K34" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="8" t="inlineStr"/>
@@ -2352,7 +3309,7 @@
       <c r="G35" s="8" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I35" s="51" t="n">
@@ -2363,7 +3320,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K35" s="51" t="n"/>
+      <c r="K35" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="8" t="inlineStr"/>
@@ -2393,7 +3379,7 @@
       <c r="G36" s="8" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I36" s="51" t="n">
@@ -2404,7 +3390,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K36" s="51" t="n"/>
+      <c r="K36" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="7" t="inlineStr"/>
@@ -2434,7 +3449,7 @@
       <c r="G37" s="7" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I37" s="51" t="n">
@@ -2445,7 +3460,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K37" s="51" t="n"/>
+      <c r="K37" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="7" t="inlineStr"/>
@@ -2475,7 +3519,7 @@
       <c r="G38" s="7" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I38" s="51" t="n">
@@ -2486,7 +3530,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K38" s="51" t="n"/>
+      <c r="K38" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="7" t="inlineStr"/>
@@ -2516,7 +3589,7 @@
       <c r="G39" s="7" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I39" s="51" t="n">
@@ -2527,7 +3600,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K39" s="51" t="n"/>
+      <c r="K39" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="7" t="inlineStr"/>
@@ -2557,7 +3659,7 @@
       <c r="G40" s="7" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I40" s="51" t="n">
@@ -2568,7 +3670,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K40" s="51" t="n"/>
+      <c r="K40" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="7" t="inlineStr"/>
@@ -2598,7 +3729,7 @@
       <c r="G41" s="7" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I41" s="51" t="n">
@@ -2609,7 +3740,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K41" s="51" t="n"/>
+      <c r="K41" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="7" t="inlineStr"/>
@@ -2639,7 +3799,7 @@
       <c r="G42" s="7" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I42" s="51" t="n">
@@ -2650,7 +3810,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K42" s="51" t="n"/>
+      <c r="K42" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="7" t="inlineStr"/>
@@ -2680,7 +3869,7 @@
       <c r="G43" s="7" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I43" s="51" t="n">
@@ -2691,7 +3880,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K43" s="51" t="n"/>
+      <c r="K43" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="7" t="inlineStr"/>
@@ -2721,7 +3939,7 @@
       <c r="G44" s="7" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I44" s="51" t="n">
@@ -2732,7 +3950,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K44" s="51" t="n"/>
+      <c r="K44" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="7" t="inlineStr"/>
@@ -2762,7 +4009,7 @@
       <c r="G45" s="7" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I45" s="51" t="n">
@@ -2773,7 +4020,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K45" s="51" t="n"/>
+      <c r="K45" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="8" t="inlineStr"/>
@@ -2803,7 +4079,7 @@
       <c r="G46" s="8" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I46" s="51" t="n">
@@ -2814,7 +4090,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K46" s="51" t="n"/>
+      <c r="K46" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="8" t="inlineStr"/>
@@ -2844,7 +4149,7 @@
       <c r="G47" s="8" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I47" s="51" t="n">
@@ -2855,7 +4160,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K47" s="51" t="n"/>
+      <c r="K47" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="8" t="inlineStr"/>
@@ -2885,7 +4219,7 @@
       <c r="G48" s="8" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I48" s="51" t="n">
@@ -2896,7 +4230,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K48" s="51" t="n"/>
+      <c r="K48" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="7" t="inlineStr"/>
@@ -2926,7 +4289,7 @@
       <c r="G49" s="7" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I49" s="51" t="n">
@@ -2937,7 +4300,36 @@
           <t>2026-04-03</t>
         </is>
       </c>
-      <c r="K49" s="51" t="n"/>
+      <c r="K49" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="5" t="inlineStr"/>

--- a/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
+++ b/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
@@ -4349,7 +4349,7 @@
       <c r="G50" s="5" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I50" s="51" t="n">
@@ -4358,6 +4358,36 @@
       <c r="J50" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K50" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4419,7 @@
       <c r="G51" s="7" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I51" s="51" t="n">
@@ -4398,6 +4428,36 @@
       <c r="J51" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K51" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4489,7 @@
       <c r="G52" s="8" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I52" s="51" t="n">
@@ -4438,6 +4498,36 @@
       <c r="J52" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K52" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4559,7 @@
       <c r="G53" s="8" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I53" s="51" t="n">
@@ -4478,6 +4568,36 @@
       <c r="J53" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K53" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4629,7 @@
       <c r="G54" s="8" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I54" s="51" t="n">
@@ -4518,6 +4638,36 @@
       <c r="J54" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K54" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4699,7 @@
       <c r="G55" s="7" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I55" s="51" t="n">
@@ -4558,6 +4708,36 @@
       <c r="J55" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K55" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4769,7 @@
       <c r="G56" s="7" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I56" s="51" t="n">
@@ -4598,6 +4778,36 @@
       <c r="J56" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K56" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4839,7 @@
       <c r="G57" s="7" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I57" s="51" t="n">
@@ -4638,6 +4848,36 @@
       <c r="J57" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K57" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4909,7 @@
       <c r="G58" s="8" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I58" s="51" t="n">
@@ -4678,6 +4918,36 @@
       <c r="J58" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K58" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4979,7 @@
       <c r="G59" s="8" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I59" s="51" t="n">
@@ -4718,6 +4988,36 @@
       <c r="J59" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K59" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4749,7 +5049,7 @@
       <c r="G60" s="8" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I60" s="51" t="n">
@@ -4758,6 +5058,36 @@
       <c r="J60" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K60" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4789,7 +5119,7 @@
       <c r="G61" s="7" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I61" s="51" t="n">
@@ -4798,6 +5128,36 @@
       <c r="J61" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K61" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4829,7 +5189,7 @@
       <c r="G62" s="7" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I62" s="51" t="n">
@@ -4838,6 +5198,36 @@
       <c r="J62" s="51" t="inlineStr">
         <is>
           <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="K62" s="51" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -12912,7 +13302,7 @@
       </c>
       <c r="F5" s="43" t="inlineStr">
         <is>
-          <t>🟨 In Progress</t>
+          <t>✅ Done</t>
         </is>
       </c>
     </row>

--- a/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
+++ b/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="I2" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J2" s="51" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="I3" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J3" s="51" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="I4" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J4" s="51" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="I5" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J5" s="51" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="I6" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J6" s="51" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="I7" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J7" s="51" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I8" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J8" s="51" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="I9" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J9" s="51" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="I10" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J10" s="51" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="I11" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J11" s="51" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="I12" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J12" s="51" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="I13" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J13" s="51" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="I14" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J14" s="51" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="I15" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J15" s="51" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="I16" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J16" s="51" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="I17" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J17" s="51" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="I18" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J18" s="51" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="I19" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J19" s="51" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="I20" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J20" s="51" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="I21" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J21" s="51" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="I22" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J22" s="51" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="I23" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J23" s="51" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="I24" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J24" s="51" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="I25" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J25" s="51" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="I26" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J26" s="51" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="I27" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J27" s="51" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="I28" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J28" s="51" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="I29" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J29" s="51" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="I30" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J30" s="51" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         </is>
       </c>
       <c r="I31" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J31" s="51" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="I32" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J32" s="51" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="I33" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J33" s="51" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="I34" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J34" s="51" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="I35" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J35" s="51" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         </is>
       </c>
       <c r="I36" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J36" s="51" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="I37" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J37" s="51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="I38" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J38" s="51" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="I39" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J39" s="51" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="I40" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J40" s="51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="I41" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J41" s="51" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="I42" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J42" s="51" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         </is>
       </c>
       <c r="I43" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J43" s="51" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         </is>
       </c>
       <c r="I44" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J44" s="51" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="I45" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J45" s="51" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="I46" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J46" s="51" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="I47" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J47" s="51" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         </is>
       </c>
       <c r="I48" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J48" s="51" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="I49" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J49" s="51" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="I50" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J50" s="51" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="I51" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J51" s="51" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="I52" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J52" s="51" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         </is>
       </c>
       <c r="I53" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J53" s="51" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="I54" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J54" s="51" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="I55" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J55" s="51" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="I56" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J56" s="51" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="I57" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J57" s="51" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         </is>
       </c>
       <c r="I58" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J58" s="51" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="I59" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J59" s="51" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         </is>
       </c>
       <c r="I60" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J60" s="51" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="I61" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J61" s="51" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="I62" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J62" s="51" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="I63" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="64" ht="16" customHeight="1">
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="I64" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="65" ht="16" customHeight="1">
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="I65" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="66" ht="16" customHeight="1">
@@ -5358,7 +5358,7 @@
         </is>
       </c>
       <c r="I66" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="67" ht="16" customHeight="1">
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="I67" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="68" ht="16" customHeight="1">
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="I68" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="69" ht="16" customHeight="1">
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="I69" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="70" ht="16" customHeight="1">
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="I70" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="71" ht="16" customHeight="1">
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="I71" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="72" ht="16" customHeight="1">
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="I72" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="73" ht="16" customHeight="1">
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="I73" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="74" ht="16" customHeight="1">
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="I74" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="75" ht="16" customHeight="1">
@@ -5673,7 +5673,7 @@
         </is>
       </c>
       <c r="I75" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="76" ht="16" customHeight="1">
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="I76" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="77" ht="16" customHeight="1">
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="I77" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="78" ht="16" customHeight="1">
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="I78" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="79" ht="16" customHeight="1">
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="I79" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="I80" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="81" ht="16" customHeight="1">
@@ -5873,7 +5873,7 @@
         </is>
       </c>
       <c r="I81" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="82" ht="16" customHeight="1">
@@ -5908,7 +5908,7 @@
         </is>
       </c>
       <c r="I82" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="83" ht="16" customHeight="1">
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="I83" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="84" ht="16" customHeight="1">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="I84" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="85" ht="16" customHeight="1">
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="I85" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="86" ht="16" customHeight="1">
@@ -6048,7 +6048,7 @@
         </is>
       </c>
       <c r="I86" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="87" ht="16" customHeight="1">
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="I87" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="88" ht="16" customHeight="1">
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="I88" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="89" ht="16" customHeight="1">
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="I89" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="90" ht="16" customHeight="1">
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="I90" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="91" ht="16" customHeight="1">
@@ -6223,7 +6223,7 @@
         </is>
       </c>
       <c r="I91" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="92" ht="16" customHeight="1">
@@ -6258,7 +6258,7 @@
         </is>
       </c>
       <c r="I92" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="93" ht="16" customHeight="1">
@@ -6293,7 +6293,7 @@
         </is>
       </c>
       <c r="I93" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="94" ht="16" customHeight="1">
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="I94" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="95" ht="16" customHeight="1">
@@ -6363,7 +6363,7 @@
         </is>
       </c>
       <c r="I95" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="96" ht="16" customHeight="1">
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="I96" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="97" ht="20" customHeight="1">
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="I97" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="98" ht="16" customHeight="1">
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="I98" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="99" ht="16" customHeight="1">
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="I99" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="100" ht="16" customHeight="1">
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="I100" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="101" ht="16" customHeight="1">
@@ -6563,7 +6563,7 @@
         </is>
       </c>
       <c r="I101" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="102" ht="16" customHeight="1">
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="I102" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="103" ht="16" customHeight="1">
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="I103" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="104" ht="16" customHeight="1">
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="I104" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="105" ht="16" customHeight="1">
@@ -6703,7 +6703,7 @@
         </is>
       </c>
       <c r="I105" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="106" ht="16" customHeight="1">
@@ -6738,7 +6738,7 @@
         </is>
       </c>
       <c r="I106" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="107" ht="16" customHeight="1">
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="I107" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="108" ht="16" customHeight="1">
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="I108" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="109" ht="16" customHeight="1">
@@ -6843,7 +6843,7 @@
         </is>
       </c>
       <c r="I109" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="110" ht="20" customHeight="1">
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="I110" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="111" ht="16" customHeight="1">
@@ -6903,7 +6903,7 @@
         </is>
       </c>
       <c r="I111" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="112" ht="16" customHeight="1">
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="I112" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="113" ht="16" customHeight="1">
@@ -6973,7 +6973,7 @@
         </is>
       </c>
       <c r="I113" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="114" ht="16" customHeight="1">
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="I114" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="115" ht="16" customHeight="1">
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="I115" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="116" ht="16" customHeight="1">
@@ -7078,7 +7078,7 @@
         </is>
       </c>
       <c r="I116" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="117" ht="16" customHeight="1">
@@ -7113,7 +7113,7 @@
         </is>
       </c>
       <c r="I117" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="118" ht="16" customHeight="1">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="I118" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="119" ht="20" customHeight="1">
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="I119" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="120" ht="16" customHeight="1">
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="I120" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="121" ht="16" customHeight="1">
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="I121" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="122" ht="16" customHeight="1">
@@ -7278,7 +7278,7 @@
         </is>
       </c>
       <c r="I122" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="123" ht="16" customHeight="1">
@@ -7313,7 +7313,7 @@
         </is>
       </c>
       <c r="I123" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="124" ht="16" customHeight="1">
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="I124" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="125" ht="16" customHeight="1">
@@ -7383,7 +7383,7 @@
         </is>
       </c>
       <c r="I125" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="126" ht="16" customHeight="1">
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="I126" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="127" ht="16" customHeight="1">
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="I127" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="128" ht="16" customHeight="1">
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="I128" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="129" ht="20" customHeight="1">
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="I129" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="130" ht="16" customHeight="1">
@@ -7548,7 +7548,7 @@
         </is>
       </c>
       <c r="I130" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="131" ht="16" customHeight="1">
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="I131" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="132" ht="16" customHeight="1">
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="I132" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="133" ht="16" customHeight="1">
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="I133" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="134" ht="16" customHeight="1">
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="I134" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="135" ht="16" customHeight="1">
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="I135" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="136" ht="16" customHeight="1">
@@ -7758,7 +7758,7 @@
         </is>
       </c>
       <c r="I136" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
     <row r="137">
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="I137" s="51" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
     </row>
   </sheetData>

--- a/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
+++ b/docs/planning/YAM_AGRI_WBS_GANTT.xlsx
@@ -5272,7 +5272,7 @@
       <c r="G63" s="4" t="n"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I63" s="52" t="n">
@@ -5281,6 +5281,36 @@
       <c r="J63" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K63" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5342,7 @@
       <c r="G64" s="6" t="n"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I64" s="52" t="n">
@@ -5321,6 +5351,36 @@
       <c r="J64" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K64" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5412,7 @@
       <c r="G65" s="7" t="n"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I65" s="52" t="n">
@@ -5361,6 +5421,36 @@
       <c r="J65" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K65" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5392,7 +5482,7 @@
       <c r="G66" s="7" t="n"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I66" s="52" t="n">
@@ -5401,6 +5491,36 @@
       <c r="J66" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K66" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5432,7 +5552,7 @@
       <c r="G67" s="6" t="n"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I67" s="52" t="n">
@@ -5441,6 +5561,36 @@
       <c r="J67" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K67" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5472,7 +5622,7 @@
       <c r="G68" s="7" t="n"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I68" s="52" t="n">
@@ -5481,6 +5631,36 @@
       <c r="J68" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K68" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5692,7 @@
       <c r="G69" s="7" t="n"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I69" s="52" t="n">
@@ -5521,6 +5701,36 @@
       <c r="J69" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K69" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5762,7 @@
       <c r="G70" s="6" t="n"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I70" s="52" t="n">
@@ -5561,6 +5771,36 @@
       <c r="J70" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K70" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5832,7 @@
       <c r="G71" s="7" t="n"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I71" s="52" t="n">
@@ -5601,6 +5841,36 @@
       <c r="J71" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K71" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5632,7 +5902,7 @@
       <c r="G72" s="7" t="n"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I72" s="52" t="n">
@@ -5641,6 +5911,36 @@
       <c r="J72" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K72" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5972,7 @@
       <c r="G73" s="7" t="n"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I73" s="52" t="n">
@@ -5681,6 +5981,36 @@
       <c r="J73" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K73" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5712,7 +6042,7 @@
       <c r="G74" s="6" t="n"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I74" s="52" t="n">
@@ -5721,6 +6051,36 @@
       <c r="J74" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K74" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5752,7 +6112,7 @@
       <c r="G75" s="7" t="n"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I75" s="52" t="n">
@@ -5761,6 +6121,36 @@
       <c r="J75" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K75" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5792,7 +6182,7 @@
       <c r="G76" s="7" t="n"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I76" s="52" t="n">
@@ -5801,6 +6191,36 @@
       <c r="J76" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K76" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5832,7 +6252,7 @@
       <c r="G77" s="6" t="n"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I77" s="52" t="n">
@@ -5841,6 +6261,36 @@
       <c r="J77" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K77" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5872,7 +6322,7 @@
       <c r="G78" s="6" t="n"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I78" s="52" t="n">
@@ -5881,6 +6331,36 @@
       <c r="J78" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K78" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5912,7 +6392,7 @@
       <c r="G79" s="6" t="n"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="I79" s="52" t="n">
@@ -5921,6 +6401,36 @@
       <c r="J79" s="52" t="inlineStr">
         <is>
           <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="K79" s="52" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>
